--- a/MDT/DienstenCatalogus/Producten-VoorRegistratieSysteem.xlsx
+++ b/MDT/DienstenCatalogus/Producten-VoorRegistratieSysteem.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="321">
   <si>
     <t>STEEK_PR_P_PROD</t>
   </si>
@@ -978,6 +978,15 @@
   </si>
   <si>
     <t>LichtZwaar</t>
+  </si>
+  <si>
+    <t>bron</t>
+  </si>
+  <si>
+    <t>Bron</t>
+  </si>
+  <si>
+    <t>VRS</t>
   </si>
 </sst>
 </file>
@@ -4666,10 +4675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J5" sqref="J5:J152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4679,7 +4688,7 @@
     <col min="3" max="3" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -4705,7 +4714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>310</v>
       </c>
@@ -4721,8 +4730,11 @@
       <c r="F2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>311</v>
       </c>
@@ -4738,8 +4750,11 @@
       <c r="F3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4765,8 +4780,11 @@
       <c r="I4">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -4792,8 +4810,11 @@
       <c r="I5">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4819,8 +4840,11 @@
       <c r="I6">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4846,8 +4870,11 @@
       <c r="I7">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -4873,8 +4900,11 @@
       <c r="I8">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -4900,8 +4930,11 @@
       <c r="I9">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -4927,8 +4960,11 @@
       <c r="I10">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -4954,8 +4990,11 @@
       <c r="I11">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -4981,8 +5020,11 @@
       <c r="I12">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -5008,8 +5050,11 @@
       <c r="I13">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -5035,8 +5080,11 @@
       <c r="I14">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -5062,8 +5110,11 @@
       <c r="I15">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -5089,8 +5140,11 @@
       <c r="I16">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -5116,8 +5170,11 @@
       <c r="I17">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -5143,8 +5200,11 @@
       <c r="I18">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -5164,8 +5224,11 @@
       <c r="I19">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -5191,8 +5254,11 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -5218,8 +5284,11 @@
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -5245,8 +5314,11 @@
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -5266,8 +5338,11 @@
       <c r="I23">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -5287,8 +5362,11 @@
       <c r="I24">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -5308,8 +5386,11 @@
       <c r="I25">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -5329,8 +5410,11 @@
       <c r="I26">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -5350,8 +5434,11 @@
       <c r="I27">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -5371,8 +5458,11 @@
       <c r="I28">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -5392,8 +5482,11 @@
       <c r="I29">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -5419,8 +5512,11 @@
       <c r="I30">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -5446,8 +5542,11 @@
       <c r="I31">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -5473,8 +5572,11 @@
       <c r="I32">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -5500,8 +5602,11 @@
       <c r="I33">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -5527,8 +5632,11 @@
       <c r="I34">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -5554,8 +5662,11 @@
       <c r="I35">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -5581,8 +5692,11 @@
       <c r="I36">
         <v>65</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -5608,8 +5722,11 @@
       <c r="I37">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -5635,8 +5752,11 @@
       <c r="I38">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -5662,8 +5782,11 @@
       <c r="I39">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -5683,8 +5806,11 @@
       <c r="I40">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -5704,8 +5830,11 @@
       <c r="I41">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -5725,8 +5854,11 @@
       <c r="I42">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -5746,8 +5878,11 @@
       <c r="I43">
         <v>65</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -5770,8 +5905,11 @@
       <c r="I44">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -5791,8 +5929,11 @@
       <c r="I45">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -5812,8 +5953,11 @@
       <c r="I46">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -5833,8 +5977,11 @@
       <c r="I47">
         <v>65</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -5854,8 +6001,11 @@
       <c r="I48">
         <v>65</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -5875,8 +6025,11 @@
       <c r="I49">
         <v>65</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -5896,8 +6049,11 @@
       <c r="I50">
         <v>65</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -5917,8 +6073,11 @@
       <c r="I51">
         <v>65</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -5944,8 +6103,11 @@
       <c r="I52">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -5965,8 +6127,11 @@
       <c r="I53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -5986,8 +6151,11 @@
       <c r="I54">
         <v>365</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -6007,8 +6175,11 @@
       <c r="I55">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -6034,8 +6205,11 @@
       <c r="I56">
         <v>65</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -6055,8 +6229,11 @@
       <c r="I57">
         <v>65</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -6076,8 +6253,11 @@
       <c r="I58">
         <v>65</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -6100,8 +6280,11 @@
       <c r="I59">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -6121,8 +6304,11 @@
       <c r="I60">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -6142,8 +6328,11 @@
       <c r="I61">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -6163,8 +6352,11 @@
       <c r="I62">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -6184,8 +6376,11 @@
       <c r="I63">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>133</v>
       </c>
@@ -6205,8 +6400,11 @@
       <c r="I64">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>135</v>
       </c>
@@ -6232,8 +6430,11 @@
       <c r="I65">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>137</v>
       </c>
@@ -6259,8 +6460,11 @@
       <c r="I66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>139</v>
       </c>
@@ -6280,8 +6484,11 @@
       <c r="I67">
         <v>35</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>141</v>
       </c>
@@ -6301,8 +6508,11 @@
       <c r="I68">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>143</v>
       </c>
@@ -6322,8 +6532,11 @@
       <c r="I69">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>145</v>
       </c>
@@ -6343,8 +6556,11 @@
       <c r="I70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>147</v>
       </c>
@@ -6370,8 +6586,11 @@
       <c r="I71">
         <v>65</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -6397,8 +6616,11 @@
       <c r="I72">
         <v>65</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>151</v>
       </c>
@@ -6424,8 +6646,11 @@
       <c r="I73">
         <v>65</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -6451,8 +6676,11 @@
       <c r="I74">
         <v>65</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -6472,8 +6700,11 @@
       <c r="I75">
         <v>65</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -6493,8 +6724,11 @@
       <c r="I76">
         <v>35</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -6520,8 +6754,11 @@
       <c r="I77">
         <v>65</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -6547,8 +6784,11 @@
       <c r="I78">
         <v>65</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>163</v>
       </c>
@@ -6574,8 +6814,11 @@
       <c r="I79">
         <v>65</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>165</v>
       </c>
@@ -6601,8 +6844,11 @@
       <c r="I80">
         <v>65</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>167</v>
       </c>
@@ -6628,8 +6874,11 @@
       <c r="I81">
         <v>65</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>169</v>
       </c>
@@ -6655,8 +6904,11 @@
       <c r="I82">
         <v>65</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>171</v>
       </c>
@@ -6682,8 +6934,11 @@
       <c r="I83">
         <v>65</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>173</v>
       </c>
@@ -6709,8 +6964,11 @@
       <c r="I84">
         <v>65</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>175</v>
       </c>
@@ -6736,8 +6994,11 @@
       <c r="I85">
         <v>35</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -6757,8 +7018,11 @@
       <c r="I86">
         <v>60</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>184</v>
       </c>
@@ -6778,8 +7042,11 @@
       <c r="I87">
         <v>65</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>186</v>
       </c>
@@ -6805,8 +7072,11 @@
       <c r="I88">
         <v>65</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>188</v>
       </c>
@@ -6832,8 +7102,11 @@
       <c r="I89">
         <v>65</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>190</v>
       </c>
@@ -6853,8 +7126,11 @@
       <c r="I90">
         <v>65</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>192</v>
       </c>
@@ -6874,8 +7150,11 @@
       <c r="I91">
         <v>65</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>194</v>
       </c>
@@ -6895,8 +7174,11 @@
       <c r="I92">
         <v>65</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>196</v>
       </c>
@@ -6916,8 +7198,11 @@
       <c r="I93">
         <v>65</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>198</v>
       </c>
@@ -6940,8 +7225,11 @@
       <c r="I94">
         <v>65</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>200</v>
       </c>
@@ -6964,8 +7252,11 @@
       <c r="I95">
         <v>65</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>203</v>
       </c>
@@ -6988,8 +7279,11 @@
       <c r="I96">
         <v>65</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>205</v>
       </c>
@@ -7015,8 +7309,11 @@
       <c r="I97">
         <v>35</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>207</v>
       </c>
@@ -7042,8 +7339,11 @@
       <c r="I98">
         <v>35</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>209</v>
       </c>
@@ -7063,8 +7363,11 @@
       <c r="I99">
         <v>35</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>211</v>
       </c>
@@ -7090,8 +7393,11 @@
       <c r="I100">
         <v>35</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>213</v>
       </c>
@@ -7117,8 +7423,11 @@
       <c r="I101">
         <v>35</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>215</v>
       </c>
@@ -7144,8 +7453,11 @@
       <c r="I102">
         <v>35</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>217</v>
       </c>
@@ -7171,8 +7483,11 @@
       <c r="I103">
         <v>35</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>219</v>
       </c>
@@ -7198,8 +7513,11 @@
       <c r="I104">
         <v>35</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>221</v>
       </c>
@@ -7225,8 +7543,11 @@
       <c r="I105">
         <v>35</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>223</v>
       </c>
@@ -7252,8 +7573,11 @@
       <c r="I106">
         <v>65</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>225</v>
       </c>
@@ -7279,8 +7603,11 @@
       <c r="I107">
         <v>35</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>226</v>
       </c>
@@ -7306,8 +7633,11 @@
       <c r="I108">
         <v>65</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>228</v>
       </c>
@@ -7333,8 +7663,11 @@
       <c r="I109">
         <v>35</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>229</v>
       </c>
@@ -7360,8 +7693,11 @@
       <c r="I110">
         <v>65</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>231</v>
       </c>
@@ -7387,8 +7723,11 @@
       <c r="I111">
         <v>35</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J111" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>232</v>
       </c>
@@ -7414,8 +7753,11 @@
       <c r="I112">
         <v>65</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J112" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>234</v>
       </c>
@@ -7441,8 +7783,11 @@
       <c r="I113">
         <v>35</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J113" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>235</v>
       </c>
@@ -7468,8 +7813,11 @@
       <c r="I114">
         <v>65</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J114" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>236</v>
       </c>
@@ -7495,8 +7843,11 @@
       <c r="I115">
         <v>65</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J115" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>237</v>
       </c>
@@ -7516,8 +7867,11 @@
       <c r="I116">
         <v>65</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J116" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>241</v>
       </c>
@@ -7537,8 +7891,11 @@
       <c r="I117">
         <v>35</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J117" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>242</v>
       </c>
@@ -7558,8 +7915,11 @@
       <c r="I118">
         <v>65</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J118" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>244</v>
       </c>
@@ -7579,8 +7939,11 @@
       <c r="I119">
         <v>65</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J119" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>246</v>
       </c>
@@ -7600,8 +7963,11 @@
       <c r="I120">
         <v>35</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J120" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>247</v>
       </c>
@@ -7621,8 +7987,11 @@
       <c r="I121">
         <v>65</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J121" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>248</v>
       </c>
@@ -7648,8 +8017,11 @@
       <c r="I122">
         <v>65</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J122" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>249</v>
       </c>
@@ -7675,8 +8047,11 @@
       <c r="I123">
         <v>65</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>250</v>
       </c>
@@ -7702,8 +8077,11 @@
       <c r="I124">
         <v>65</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J124" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>251</v>
       </c>
@@ -7729,8 +8107,11 @@
       <c r="I125">
         <v>65</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J125" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>253</v>
       </c>
@@ -7750,8 +8131,11 @@
       <c r="I126">
         <v>65</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J126" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>255</v>
       </c>
@@ -7777,8 +8161,11 @@
       <c r="I127">
         <v>65</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J127" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>257</v>
       </c>
@@ -7804,8 +8191,11 @@
       <c r="I128">
         <v>35</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>258</v>
       </c>
@@ -7831,8 +8221,11 @@
       <c r="I129">
         <v>65</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>259</v>
       </c>
@@ -7858,8 +8251,11 @@
       <c r="I130">
         <v>65</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J130" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -7885,8 +8281,11 @@
       <c r="I131">
         <v>65</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J131" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>265</v>
       </c>
@@ -7912,8 +8311,11 @@
       <c r="I132">
         <v>35</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J132" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>267</v>
       </c>
@@ -7939,8 +8341,11 @@
       <c r="I133">
         <v>65</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J133" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>269</v>
       </c>
@@ -7966,8 +8371,11 @@
       <c r="I134">
         <v>65</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J134" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>271</v>
       </c>
@@ -7993,8 +8401,11 @@
       <c r="I135">
         <v>35</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J135" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>273</v>
       </c>
@@ -8014,8 +8425,11 @@
       <c r="I136">
         <v>65</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J136" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>275</v>
       </c>
@@ -8035,8 +8449,11 @@
       <c r="I137">
         <v>35</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J137" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>277</v>
       </c>
@@ -8065,8 +8482,11 @@
       <c r="I138">
         <v>65</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J138" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>279</v>
       </c>
@@ -8095,8 +8515,11 @@
       <c r="I139">
         <v>65</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J139" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>281</v>
       </c>
@@ -8122,8 +8545,11 @@
       <c r="I140">
         <v>65</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J140" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>283</v>
       </c>
@@ -8143,8 +8569,11 @@
       <c r="I141">
         <v>65</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J141" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>285</v>
       </c>
@@ -8170,8 +8599,11 @@
       <c r="I142">
         <v>65</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J142" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>287</v>
       </c>
@@ -8197,8 +8629,11 @@
       <c r="I143">
         <v>65</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J143" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>289</v>
       </c>
@@ -8224,8 +8659,11 @@
       <c r="I144">
         <v>65</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J144" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>290</v>
       </c>
@@ -8251,8 +8689,11 @@
       <c r="I145">
         <v>65</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J145" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>291</v>
       </c>
@@ -8278,8 +8719,11 @@
       <c r="I146">
         <v>65</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J146" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>293</v>
       </c>
@@ -8305,8 +8749,11 @@
       <c r="I147">
         <v>65</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J147" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>295</v>
       </c>
@@ -8332,8 +8779,11 @@
       <c r="I148">
         <v>65</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J148" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>297</v>
       </c>
@@ -8359,8 +8809,11 @@
       <c r="I149">
         <v>65</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J149" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>299</v>
       </c>
@@ -8386,8 +8839,11 @@
       <c r="I150">
         <v>65</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J150" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>301</v>
       </c>
@@ -8413,8 +8869,11 @@
       <c r="I151">
         <v>65</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J151" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>302</v>
       </c>
@@ -8439,6 +8898,9 @@
       </c>
       <c r="I152">
         <v>65</v>
+      </c>
+      <c r="J152" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
